--- a/data/trans_bre/P07_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.5989722961159738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-3.147548530295452</v>
+        <v>-3.14754853029543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.03936717847224779</v>
@@ -649,7 +649,7 @@
         <v>0.006158744769715064</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0326518877934393</v>
+        <v>-0.03265188779343908</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.59189998504507</v>
+        <v>-6.836302026695164</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.772956199845908</v>
+        <v>-5.683242375802022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.444227909040019</v>
+        <v>-1.624080630912268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.502799340959427</v>
+        <v>-8.241898552337604</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0675323921278477</v>
+        <v>-0.06928021123473443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05861694996128906</v>
+        <v>-0.05800387471509209</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01473443750383787</v>
+        <v>-0.01655898574465878</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.08684935403632746</v>
+        <v>-0.08524467204254835</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.372184023647021</v>
+        <v>-1.442170066070423</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1736553134033292</v>
+        <v>0.03667881724243022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.743278523378017</v>
+        <v>2.70521497607221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.369614379902403</v>
+        <v>1.394381118524614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.01419742368472413</v>
+        <v>-0.01500676962507451</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.001779192314191773</v>
+        <v>0.0003747538517097946</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02850235101256468</v>
+        <v>0.02824709843049583</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.01431141717720821</v>
+        <v>0.01447526565803267</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-2.624819595120542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.02127820079514</v>
+        <v>2.021278200795107</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08015761456184575</v>
@@ -749,7 +749,7 @@
         <v>-0.02740403351376</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02160677229641462</v>
+        <v>0.02160677229641426</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.75044617323221</v>
+        <v>-10.40563455347612</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.619006023346366</v>
+        <v>-6.765945005244656</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.146273354010415</v>
+        <v>-5.396113759028939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9207945060633622</v>
+        <v>-1.196397347413398</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1119242545946205</v>
+        <v>-0.1083527218659772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07023690604709677</v>
+        <v>-0.07135723555441707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0536052922522348</v>
+        <v>-0.05557427649485835</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.009650750382431997</v>
+        <v>-0.01245731361831247</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.664404464675923</v>
+        <v>-4.778988081461629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.671047190567486</v>
+        <v>-0.6691751848133508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06562702519434171</v>
+        <v>0.1351192680863049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.870228883240197</v>
+        <v>5.571883417990012</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04947683484802327</v>
+        <v>-0.05046088850184458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.007265250491278083</v>
+        <v>-0.00680398442029609</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0006772721404102991</v>
+        <v>0.001515770488827436</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06459564257783496</v>
+        <v>0.06128150306504583</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.65248653648718</v>
+        <v>-11.65310361297392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.56169113550889</v>
+        <v>-11.37984818044369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.696224121602551</v>
+        <v>-6.929315365939624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.456765038263006</v>
+        <v>-6.18794016508317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1267308463935922</v>
+        <v>-0.1275485320423401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1265020512558018</v>
+        <v>-0.1226619701673961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07103590068597557</v>
+        <v>-0.0725986080045737</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06827767604043906</v>
+        <v>-0.06559097608767303</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.148390464377684</v>
+        <v>-3.984240220298378</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.02399794641999</v>
+        <v>-4.081388714343155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.4934217186527483</v>
+        <v>-0.8668716840915734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.1724423474483713</v>
+        <v>-0.4367424264913572</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.04619015424978039</v>
+        <v>-0.04502276344275846</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.04565569248474732</v>
+        <v>-0.0462708768075131</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.005342996277072422</v>
+        <v>-0.009416097429655459</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.001871686190861612</v>
+        <v>-0.004760602524287794</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-20.02277062155353</v>
+        <v>-19.97907199466468</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.54640011195275</v>
+        <v>-13.77499089218676</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.493327960170797</v>
+        <v>-6.401903083011258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.001655855099277</v>
+        <v>-5.665264638517459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2257544284948484</v>
+        <v>-0.2265789456387511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1559925348123999</v>
+        <v>-0.1582901830285446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07613071475994188</v>
+        <v>-0.07548432684050878</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06972266400398659</v>
+        <v>-0.06690911296804114</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.1649384031468</v>
+        <v>-9.998406241552802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.288383839898326</v>
+        <v>-4.376019394702437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.642101645635461</v>
+        <v>2.825393711877362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.044903661698357</v>
+        <v>1.365047536263953</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.117599972684042</v>
+        <v>-0.1190628821976702</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05098297475256499</v>
+        <v>-0.05277197692207156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03341448468284135</v>
+        <v>0.03534954416802092</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01244084990954447</v>
+        <v>0.01632423496525936</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-10.35332400253147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.502990137866449</v>
+        <v>-6.502990137866438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1594902224269538</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1374757112295199</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.08845448072629286</v>
+        <v>-0.08845448072629271</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.85840078917872</v>
+        <v>-17.65091078424397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-20.33110407840514</v>
+        <v>-20.30161374160159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.45830187747183</v>
+        <v>-16.39600875823442</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.51475297725215</v>
+        <v>-11.19144921319823</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2394520013797358</v>
+        <v>-0.2371644050256694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.255947283697822</v>
+        <v>-0.2558488971270146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.212108639752018</v>
+        <v>-0.2120201138139972</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1388816634882968</v>
+        <v>-0.1466008016996035</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.6762681902249</v>
+        <v>-4.632262479592533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.358783050707483</v>
+        <v>-7.507152958367039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.341998708145618</v>
+        <v>-3.687299221155787</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.830305715964063</v>
+        <v>-2.051104041962704</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.06816543409526345</v>
+        <v>-0.06569233290996472</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.08661647080935432</v>
+        <v>-0.1025040853415011</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.05986743748426924</v>
+        <v>-0.05237409942370987</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.02565334729278345</v>
+        <v>-0.0292815026651611</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-16.33654789106961</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-13.17547882480343</v>
+        <v>-13.17547882480347</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.330532791744747</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2340262252982973</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1824244797060738</v>
+        <v>-0.1824244797060742</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-27.69962135949265</v>
+        <v>-28.34600134008281</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-18.7736560527789</v>
+        <v>-18.42374372585348</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-23.19082518957246</v>
+        <v>-22.90152435738047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-18.12975212189281</v>
+        <v>-18.25728684422509</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4232491487156568</v>
+        <v>-0.4321064705954219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2794360971213647</v>
+        <v>-0.2783258710321853</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3193830713076209</v>
+        <v>-0.3185129768418963</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2414195507086167</v>
+        <v>-0.2434041866711307</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-12.87340357880624</v>
+        <v>-13.15016410256787</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-2.992870570114257</v>
+        <v>-2.443386250598638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-10.14003367954293</v>
+        <v>-8.445507252564889</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-8.209044515034066</v>
+        <v>-8.535697482601371</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2220542925451235</v>
+        <v>-0.2254506690198835</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05019719614286646</v>
+        <v>-0.04237014673371986</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1490837015220949</v>
+        <v>-0.1297489506823418</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1140029947226659</v>
+        <v>-0.1210885147798827</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-18.2874696634421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-16.13409861546233</v>
+        <v>-16.13409861546232</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.3289279210184502</v>
@@ -1249,7 +1249,7 @@
         <v>-0.3318678846898612</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2896910898424871</v>
+        <v>-0.2896910898424869</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-22.79483139148089</v>
+        <v>-24.16083273272424</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-18.96254249783091</v>
+        <v>-19.04775183330093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-26.31446555071527</v>
+        <v>-25.73405398545404</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-21.29965443866997</v>
+        <v>-21.77083174199153</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4580195319224757</v>
+        <v>-0.4742421685341817</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3974139723733781</v>
+        <v>-0.3957078756777024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4473745632616785</v>
+        <v>-0.4442823310766475</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3640358260064498</v>
+        <v>-0.3645023741289903</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.014486225435809</v>
+        <v>-6.777005003832233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.475730474128074</v>
+        <v>-2.524198056336382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.51181082235328</v>
+        <v>-10.20959153966864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-9.29536484173939</v>
+        <v>-10.13037967323606</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1419525016546145</v>
+        <v>-0.1679883012007349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.06671115651465931</v>
+        <v>-0.06797961399112716</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.2016258643052323</v>
+        <v>-0.1930974914356454</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.1829176937299204</v>
+        <v>-0.1895730050152181</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-8.182353356095151</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-6.96413736783218</v>
+        <v>-6.964137367832191</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1540315089148565</v>
@@ -1349,7 +1349,7 @@
         <v>-0.09705725072678237</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.08426432094746684</v>
+        <v>-0.08426432094746697</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-14.87898818551388</v>
+        <v>-15.20256152123598</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-12.07900562218968</v>
+        <v>-12.0332238058413</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-10.16616407073085</v>
+        <v>-10.08648549481464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-8.487459508352959</v>
+        <v>-8.745911252242342</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1745541370753965</v>
+        <v>-0.1780882244553276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1429494407417076</v>
+        <v>-0.1435700593115226</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1189785501997134</v>
+        <v>-0.1187732877760113</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1018277331425197</v>
+        <v>-0.1044652728403583</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-10.9779696096485</v>
+        <v>-11.08851145908402</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-8.011441498323336</v>
+        <v>-8.267382033490584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-6.152791713852589</v>
+        <v>-6.222537492970813</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-5.119903582849532</v>
+        <v>-5.155744872896757</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1305211691896555</v>
+        <v>-0.1324333814940563</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.09701810957738069</v>
+        <v>-0.09995844904498496</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07322180264044766</v>
+        <v>-0.07455849614754972</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06284841027807943</v>
+        <v>-0.06254364100451119</v>
       </c>
     </row>
     <row r="28">
